--- a/Data/Dados e Metadados de Artigos Compilados.xlsx
+++ b/Data/Dados e Metadados de Artigos Compilados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SinBiAm_Tree_Trait - github.com\SinBiAm_Tree_Trait\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB79B71-D615-40A3-9ADA-52A29B62ACD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6D296A-878F-4BD1-9B1D-6CD15346EE13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7410" windowHeight="4080" activeTab="2" xr2:uid="{93F8230C-8619-44AF-B51E-F46A232B1424}"/>
   </bookViews>

--- a/Data/Dados e Metadados de Artigos Compilados.xlsx
+++ b/Data/Dados e Metadados de Artigos Compilados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SinBiAm_Tree_Trait - github.com\SinBiAm_Tree_Trait\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6D296A-878F-4BD1-9B1D-6CD15346EE13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231B3B57-57F0-466B-9244-52F3118313F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7410" windowHeight="4080" activeTab="2" xr2:uid="{93F8230C-8619-44AF-B51E-F46A232B1424}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7410" windowHeight="4080" xr2:uid="{93F8230C-8619-44AF-B51E-F46A232B1424}"/>
   </bookViews>
   <sheets>
     <sheet name="artigos" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17878" uniqueCount="4947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17925" uniqueCount="4989">
   <si>
     <t>Autor</t>
   </si>
@@ -15026,6 +15026,132 @@
   </si>
   <si>
     <t>Bionte 1 BNT-01 - MAN</t>
+  </si>
+  <si>
+    <t>DAcunha et all 2024</t>
+  </si>
+  <si>
+    <t>Data for: Changes in evapotranspiration, transpiration and evaporation across natural and managed landscapes in the Amazon, Cerrado and Pantanal biomes</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.7331957</t>
+  </si>
+  <si>
+    <t>dados e metadados</t>
+  </si>
+  <si>
+    <t>Cavender-Bares et all 2015</t>
+  </si>
+  <si>
+    <t>Cavender-Bares et all</t>
+  </si>
+  <si>
+    <t>A sustainability framework for assessing trade-offs in ecosystem services</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.5751/ES-06917-200117</t>
+  </si>
+  <si>
+    <t>Souza et all 2022</t>
+  </si>
+  <si>
+    <t>Souza et all</t>
+  </si>
+  <si>
+    <t>Assessing Drought Response in the Southwestern Amazon Forest by Remote Sensing and In Situ Measurements</t>
+  </si>
+  <si>
+    <t>sem dados</t>
+  </si>
+  <si>
+    <t>Marechaux et all 2018</t>
+  </si>
+  <si>
+    <t>Marechaux et all</t>
+  </si>
+  <si>
+    <t>Dry‐season decline in tree sapflux is correlated with leaf turgor loss point in a tropical rainforest</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1365-2435.13188</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/rs14071733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPFLUXNET: towards a global database of sap flow measurements </t>
+  </si>
+  <si>
+    <t>Poyatos et all 2016</t>
+  </si>
+  <si>
+    <t>Poyatos et all</t>
+  </si>
+  <si>
+    <t>pago</t>
+  </si>
+  <si>
+    <t>tabelar dados - também há dados em Poyatos et all 2016</t>
+  </si>
+  <si>
+    <t>Parolin et all 2008</t>
+  </si>
+  <si>
+    <t>Parolin et all</t>
+  </si>
+  <si>
+    <t>SAPWOOD AREA IN SEVEN COMMON TREE SPECIES OF CENTRAL AMAZON FLOODPLAINS</t>
+  </si>
+  <si>
+    <t>https://www.anchietano.unisinos.br/publicacoes/botanica/volumes/059/artigo14.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/treephys/tpw110</t>
+  </si>
+  <si>
+    <t>tabelar dados de média</t>
+  </si>
+  <si>
+    <t>Santiago et all 2018</t>
+  </si>
+  <si>
+    <t>Santiago et all</t>
+  </si>
+  <si>
+    <t>Coordination and trade-offs among hydraulic safety, efficiency and drought avoidance traits in Amazonian rainforest canopy tree species</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/nph.15058</t>
+  </si>
+  <si>
+    <t>Topography shapes the local coexistence of tree species within species complexes of Neotropical forests</t>
+  </si>
+  <si>
+    <t>Schmitt et all 2021</t>
+  </si>
+  <si>
+    <t>Schmitt et all</t>
+  </si>
+  <si>
+    <t>dados em https://paracou.cirad.fr/</t>
+  </si>
+  <si>
+    <t>Resolving whole-plant economics from leaf, stem and root traits of 1467 Amazonian tree species</t>
+  </si>
+  <si>
+    <t>Vleminckx et all 2021</t>
+  </si>
+  <si>
+    <t>Vleminckx et all</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/oik.08284</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00442-021-04939-2</t>
+  </si>
+  <si>
+    <t>MUITOS DADOS</t>
   </si>
 </sst>
 </file>
@@ -16156,15 +16282,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4351B6-8697-4D2A-9894-5062BAC3B23C}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.140625" customWidth="1"/>
@@ -16174,7 +16300,7 @@
     <col min="11" max="11" width="76.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1">
       <c r="A1" t="s">
         <v>4797</v>
       </c>
@@ -16209,7 +16335,7 @@
         <v>4816</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="17.25" customHeight="1">
       <c r="A2" t="s">
         <v>386</v>
       </c>
@@ -16235,7 +16361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="17.25" customHeight="1">
       <c r="A3" t="s">
         <v>401</v>
       </c>
@@ -16258,7 +16384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="17.25" customHeight="1">
       <c r="A4" t="s">
         <v>405</v>
       </c>
@@ -16281,7 +16407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="1:11" ht="17.25" customHeight="1">
       <c r="A5" t="s">
         <v>2440</v>
       </c>
@@ -16310,7 +16436,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="17.25" customHeight="1">
       <c r="A6" t="s">
         <v>402</v>
       </c>
@@ -16336,7 +16462,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="75">
+    <row r="7" spans="1:11" ht="17.25" customHeight="1">
       <c r="A7" t="s">
         <v>427</v>
       </c>
@@ -16363,7 +16489,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30">
+    <row r="8" spans="1:11" ht="17.25" customHeight="1">
       <c r="A8" t="s">
         <v>431</v>
       </c>
@@ -16389,7 +16515,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30">
+    <row r="9" spans="1:11" ht="17.25" customHeight="1">
       <c r="A9" t="s">
         <v>1020</v>
       </c>
@@ -16412,7 +16538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="60">
+    <row r="10" spans="1:11" ht="17.25" customHeight="1">
       <c r="A10" t="s">
         <v>1034</v>
       </c>
@@ -16438,7 +16564,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30">
+    <row r="11" spans="1:11" ht="17.25" customHeight="1">
       <c r="A11" t="s">
         <v>1049</v>
       </c>
@@ -16461,7 +16587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:11" ht="17.25" customHeight="1">
       <c r="A12" t="s">
         <v>1122</v>
       </c>
@@ -16484,7 +16610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="150">
+    <row r="13" spans="1:11" ht="17.25" customHeight="1">
       <c r="A13" t="s">
         <v>1035</v>
       </c>
@@ -16513,7 +16639,7 @@
         <v>4801</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30">
+    <row r="14" spans="1:11" ht="17.25" customHeight="1">
       <c r="A14" t="s">
         <v>1036</v>
       </c>
@@ -16536,7 +16662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30">
+    <row r="15" spans="1:11" ht="17.25" customHeight="1">
       <c r="A15" t="s">
         <v>1037</v>
       </c>
@@ -16559,10 +16685,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="17.25" customHeight="1">
       <c r="A16" t="s">
         <v>4919</v>
       </c>
+      <c r="B16" s="64" t="s">
+        <v>369</v>
+      </c>
       <c r="D16" t="s">
         <v>31</v>
       </c>
@@ -16577,6 +16706,186 @@
       </c>
       <c r="K16" t="s">
         <v>4922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A17" s="64" t="s">
+        <v>4947</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4950</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4947</v>
+      </c>
+      <c r="E17">
+        <v>2024</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>4948</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4958</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>4952</v>
+      </c>
+      <c r="E18">
+        <v>2015</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>4953</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A19" s="33" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4958</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4956</v>
+      </c>
+      <c r="E19">
+        <v>2022</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>4957</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>4968</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4960</v>
+      </c>
+      <c r="E20">
+        <v>2018</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>4961</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A21" s="33" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4967</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>4966</v>
+      </c>
+      <c r="E21">
+        <v>2016</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4964</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>4969</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>4974</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>4970</v>
+      </c>
+      <c r="E22">
+        <v>2008</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>4971</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A23" s="63" t="s">
+        <v>4975</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>4974</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4976</v>
+      </c>
+      <c r="E23">
+        <v>2018</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>4977</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A24" s="63" t="s">
+        <v>4980</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>4982</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4981</v>
+      </c>
+      <c r="E24">
+        <v>2021</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>4979</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A25" s="63" t="s">
+        <v>4984</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>4988</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4985</v>
+      </c>
+      <c r="E25">
+        <v>2021</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>4983</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4986</v>
       </c>
     </row>
   </sheetData>
@@ -16597,9 +16906,18 @@
     <hyperlink ref="I5" r:id="rId9" xr:uid="{F895B319-8EAC-4ECC-8568-3A86C1645769}"/>
     <hyperlink ref="J13" r:id="rId10" xr:uid="{0498073A-8C00-482A-9193-D140BE142C40}"/>
     <hyperlink ref="G16" r:id="rId11" xr:uid="{229B2345-68BA-4F69-A832-6C7F5B0788D3}"/>
+    <hyperlink ref="G17" r:id="rId12" xr:uid="{8B49C073-C679-4254-AD22-365F63AE6F9C}"/>
+    <hyperlink ref="G18" r:id="rId13" xr:uid="{760199E3-17C7-45D5-9CFE-08D7170B0574}"/>
+    <hyperlink ref="G20" r:id="rId14" xr:uid="{9EC75EB7-AC8E-4C26-92D1-9B4E7F5EA6DC}"/>
+    <hyperlink ref="G19" r:id="rId15" xr:uid="{32BA6D75-D4D2-4584-BB0E-E02F33EEB6A9}"/>
+    <hyperlink ref="G22" r:id="rId16" xr:uid="{BC8BE5C0-D98E-4748-89FE-5888928C6E9D}"/>
+    <hyperlink ref="G21" r:id="rId17" xr:uid="{DD94FC8D-4516-4AB2-A68C-5F35AAF4EAC5}"/>
+    <hyperlink ref="G23" r:id="rId18" xr:uid="{C3F8CF42-3D60-4AFF-975D-E0EC14BEFF51}"/>
+    <hyperlink ref="G25" r:id="rId19" xr:uid="{98110E02-E8A6-4FC8-8234-B245C11524BF}"/>
+    <hyperlink ref="G24" r:id="rId20" xr:uid="{7C7E6C67-62D3-44A6-B957-C4B4FB3D08B3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -60085,7 +60403,7 @@
   <dimension ref="A1:AD169"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AD1"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -71959,13 +72277,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E98BF74-80D6-465F-B11A-B21AED6DFA5F}">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD33"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -73469,6 +73787,11 @@
         <v>1158</v>
       </c>
     </row>
+    <row r="36" spans="1:21">
+      <c r="A36" t="s">
+        <v>4947</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:V34">
     <sortCondition ref="A2:A34"/>
@@ -73482,8 +73805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A081B80B-0E1E-4857-BAB9-5D19969261FB}">
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -75500,7 +75823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E30CCBD-C0D3-40C3-B1AE-9469EF5B5FF0}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:L1"/>
     </sheetView>
   </sheetViews>
@@ -77851,9 +78174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BF2D70-C3E9-4B5F-9CF6-98ED617BB0A1}">
   <dimension ref="A1:AH177"/>
   <sheetViews>
-    <sheetView topLeftCell="O171" workbookViewId="0">
-      <selection sqref="A1:AH177"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -95750,8 +96071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87665679-05E5-4A1A-9ED2-DE2859087FC4}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:T1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
